--- a/Automation-UserCMD/TestData/Outputs/QuestionMetadataOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/QuestionMetadataOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Question" sheetId="1" r:id="R278a8b49b9c0453a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Question" sheetId="1" r:id="R89ef8f9b60ee41bd"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/QuestionMetadataOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/QuestionMetadataOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Question" sheetId="1" r:id="R89ef8f9b60ee41bd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Question" sheetId="1" r:id="R0c2e79cd48384320"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/QuestionMetadataOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/QuestionMetadataOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Question" sheetId="1" r:id="R0c2e79cd48384320"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Question" sheetId="1" r:id="Rcc380b8097d34b39"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -170,6 +170,106 @@
         <x:v>11/20/2015</x:v>
       </x:c>
     </x:row>
+    <x:row r="4">
+      <x:c r="A4" t="str">
+        <x:v>update</x:v>
+      </x:c>
+      <x:c r="B4" t="str">
+        <x:v>1934291</x:v>
+      </x:c>
+      <x:c r="C4" t="str">
+        <x:v>Composite</x:v>
+      </x:c>
+      <x:c r="D4" t="str">
+        <x:v>Composite</x:v>
+      </x:c>
+      <x:c r="E4" t="str">
+        <x:v>c9523d19-ee08-44b7-b3a7-ece580db8a83</x:v>
+      </x:c>
+      <x:c r="G4" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H4" t="str">
+        <x:v>Constructed</x:v>
+      </x:c>
+      <x:c r="I4" t="str">
+        <x:v>Custom</x:v>
+      </x:c>
+      <x:c r="J4" t="str">
+        <x:v>Human Scoring</x:v>
+      </x:c>
+      <x:c r="K4" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="L4" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="M4" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="N4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O4" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="P4" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="Q4" t="str">
+        <x:v>11/20/2015</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" t="str">
+        <x:v>update</x:v>
+      </x:c>
+      <x:c r="B5" t="str">
+        <x:v>1934293</x:v>
+      </x:c>
+      <x:c r="C5" t="str">
+        <x:v>Composite</x:v>
+      </x:c>
+      <x:c r="D5" t="str">
+        <x:v>Composite</x:v>
+      </x:c>
+      <x:c r="E5" t="str">
+        <x:v>c9523d19-ee08-44b7-b3a7-ece580db8a83</x:v>
+      </x:c>
+      <x:c r="G5" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="H5" t="str">
+        <x:v>Constructed</x:v>
+      </x:c>
+      <x:c r="I5" t="str">
+        <x:v>Custom</x:v>
+      </x:c>
+      <x:c r="J5" t="str">
+        <x:v>Human Scoring</x:v>
+      </x:c>
+      <x:c r="K5" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="L5" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="M5" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="N5" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O5" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="P5" t="str">
+        <x:v/>
+      </x:c>
+      <x:c r="Q5" t="str">
+        <x:v>11/20/2015</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>